--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0A029-F0E8-4A50-8A35-870DF10AC692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,530 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
+  <si>
+    <t>Экран загрузки</t>
+  </si>
+  <si>
+    <t>Отображение элементов загрузки</t>
+  </si>
+  <si>
+    <t>Окно авторизации</t>
+  </si>
+  <si>
+    <t>Топбар</t>
+  </si>
+  <si>
+    <t>Раскрытие бургерного меню</t>
+  </si>
+  <si>
+    <t>Не кликабельный логотип</t>
+  </si>
+  <si>
+    <t>Переход в раздел цитат</t>
+  </si>
+  <si>
+    <t>Открытие меню пользователя</t>
+  </si>
+  <si>
+    <t>Основное окно</t>
+  </si>
+  <si>
+    <t>Сворачивание/Разворачивание всех новостей</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание новостей по тапу</t>
+  </si>
+  <si>
+    <t>Открытие раздела новости из основного окна</t>
+  </si>
+  <si>
+    <t>Сворачивание всех заявок</t>
+  </si>
+  <si>
+    <t>Открытие заявки по тапу</t>
+  </si>
+  <si>
+    <t>Редактирование комментария</t>
+  </si>
+  <si>
+    <t>Добавление коментария</t>
+  </si>
+  <si>
+    <t>Редактирование заявки</t>
+  </si>
+  <si>
+    <t>Взятие в работу</t>
+  </si>
+  <si>
+    <t>Выход из работы</t>
+  </si>
+  <si>
+    <t>Возврат в основное окно</t>
+  </si>
+  <si>
+    <t>Добавление новой заявки</t>
+  </si>
+  <si>
+    <t>Переход в раздел заявок</t>
+  </si>
+  <si>
+    <t>Раздел About</t>
+  </si>
+  <si>
+    <t>Ссылка Privacy</t>
+  </si>
+  <si>
+    <t>Ссылка Terms</t>
+  </si>
+  <si>
+    <t>Отображение версии</t>
+  </si>
+  <si>
+    <t>Возврат назад</t>
+  </si>
+  <si>
+    <t>Раздел News</t>
+  </si>
+  <si>
+    <t>Сортировка</t>
+  </si>
+  <si>
+    <t>Фильтрация</t>
+  </si>
+  <si>
+    <t>Контрольная панель</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>Добавление новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редактирование </t>
+  </si>
+  <si>
+    <t>Изменение статуса новости и ее отображение в ленте</t>
+  </si>
+  <si>
+    <t>Раздел Claims</t>
+  </si>
+  <si>
+    <t>Закрытие заявки</t>
+  </si>
+  <si>
+    <t>Возврат в окно заявок</t>
+  </si>
+  <si>
+    <t>Кнопка пользователя</t>
+  </si>
+  <si>
+    <t>Выход из профиля</t>
+  </si>
+  <si>
+    <t>Запустить приложение</t>
+  </si>
+  <si>
+    <t>Покрыт</t>
+  </si>
+  <si>
+    <t>Вход с валидными данными</t>
+  </si>
+  <si>
+    <t>Вход с невалидными данными</t>
+  </si>
+  <si>
+    <t>Вход без заполнения строк</t>
+  </si>
+  <si>
+    <t>При открытии приложения отображается иконка загрузки, видна цитата</t>
+  </si>
+  <si>
+    <t>Осуществлен вход в приложение</t>
+  </si>
+  <si>
+    <t>Вход не был осуществлен, уведомление о неправильных данных</t>
+  </si>
+  <si>
+    <t>Вход не был осуществлен, уведомление о недопустимости пустых полей</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Блок элементов</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Покрытие</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню</t>
+  </si>
+  <si>
+    <t>Осуществлено раскрытие меню</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню
+2. Выбрать пункт News</t>
+  </si>
+  <si>
+    <t>Открытие главного окна</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню
+2. Выбрать пункт About</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню
+2. Выбрать пункт Claims</t>
+  </si>
+  <si>
+    <t>1. Нажать на логотип</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню
+2. Выбрать пункт отличный от пункта Main
+3. Нажать на кнопку меню
+4. Выбрать пункт Main</t>
+  </si>
+  <si>
+    <t>Осуществлен переход на окно News</t>
+  </si>
+  <si>
+    <t>Осуществлен переход на окно Claims</t>
+  </si>
+  <si>
+    <t>Переход в меню на окно About</t>
+  </si>
+  <si>
+    <t>Переход в меню на окно Claims</t>
+  </si>
+  <si>
+    <t>Переход в меню на окно News</t>
+  </si>
+  <si>
+    <t>Осуществлен переход на окно About</t>
+  </si>
+  <si>
+    <t>Ничего не произошло</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку цитат</t>
+  </si>
+  <si>
+    <t>1. Нажать на иконку пользователя</t>
+  </si>
+  <si>
+    <t>Открылось меню действий пользователя</t>
+  </si>
+  <si>
+    <t>Открылось главное окно</t>
+  </si>
+  <si>
+    <t>Открылся цитатник</t>
+  </si>
+  <si>
+    <t>Предварительные условия</t>
+  </si>
+  <si>
+    <t>1. После появления полей нажать на кнопку авторизации</t>
+  </si>
+  <si>
+    <t>1. После появления полей заполнить
+поля произвольными данными
+2. Нажать на кнопку авторизации</t>
+  </si>
+  <si>
+    <t>1. После появления полей заполнить
+1.1. Поле логин - login2
+1.2. Поле пароль - password2
+2. Нажать на кнопку авторизации</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных.</t>
+  </si>
+  <si>
+    <t>1. Нажать на блок новостей
+2. Нажать на блок новостей повторно</t>
+  </si>
+  <si>
+    <t>Блок новостей сворачивается/разворачивается</t>
+  </si>
+  <si>
+    <t>1. Нажать на новость
+2. Нажать на новость повторно</t>
+  </si>
+  <si>
+    <t>Новость сворачивается/разворачивается</t>
+  </si>
+  <si>
+    <t>1. Нажать на блок заявок
+2. Нажать на блок заявок повторно</t>
+  </si>
+  <si>
+    <t>Блок заявок сворачивается/разворачивается</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку</t>
+  </si>
+  <si>
+    <t>Заявка открыта</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку All news</t>
+  </si>
+  <si>
+    <t>Открыто окно новостей</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку All claims</t>
+  </si>
+  <si>
+    <t>Открыто окно заявок</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку
+2. Нажать на кнопку назад внизу заявки</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку создания заявки в блоке заявок
+2. Заполнить информацию
+3. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>Создана новая заявка. Осуществлен возврат в главное окно</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку с ранее размещенным комментарием
+2. Нажать на редактирование комментария
+3. Внести изменения
+4. Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Комментарий изменен</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку
+2. Нажать на добавление комментария
+3. Внести изменения
+4. Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Комментарий добавлен</t>
+  </si>
+  <si>
+    <t>Запуск приложения, ожидание загрузки</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку, доступную для редактирования
+2. Внесение изменений
+3. Сохранение изменений</t>
+  </si>
+  <si>
+    <t>Внесены изменения в заявку</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку со статусом Open
+2. Нажать на иконку меню назначения исполнителя
+3. Нажать на пункт take to work</t>
+  </si>
+  <si>
+    <t>Изменен исполнитель заявки</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку со статусом Open
+2. Нажать на иконку меню назначения исполнителя
+3. Нажать на пункт take to work
+4. Нажать на пункт to execute
+5. Внести причины закрытия, сохранить</t>
+  </si>
+  <si>
+    <t>Заявка переведена в статус executed. В описании сохранена причина закрытия</t>
+  </si>
+  <si>
+    <t>Исполнитель снят, отобразился комментарий вышедшего исполнителя</t>
+  </si>
+  <si>
+    <t>1. Нажать на заявку со статусом Open
+2. Нажать на иконку меню назначения исполнителя
+3. Нажать на пункт take to work
+4. Нажать на пункт throw off
+5. Внести причину выхода, сохранить</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных, перейти в раздел About</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку назад</t>
+  </si>
+  <si>
+    <t>Отображение главного окна</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку Privacy policy</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку Terms of use</t>
+  </si>
+  <si>
+    <t>Вверху экрана отображается текущая версия</t>
+  </si>
+  <si>
+    <t>Открыто окно браузера, отображаются Terms of use</t>
+  </si>
+  <si>
+    <t>Открыто окно браузера, отображаются Privacy policy</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных, перейти в раздел Claims</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных, перейти в раздел News</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных</t>
+  </si>
+  <si>
+    <t>1. Нажать на иконку пользователя
+2. Нажать кнопку Log out</t>
+  </si>
+  <si>
+    <t>Осуществлен выход из приложения, видно окно авторизации</t>
+  </si>
+  <si>
+    <t>Открылось окно заявок</t>
+  </si>
+  <si>
+    <t>1. Нажать на иконку фильтрации
+2. Внести изменения в настройках фильтра</t>
+  </si>
+  <si>
+    <t>Отображаются заявки, подходящие под настройку фильтрации</t>
+  </si>
+  <si>
+    <t>1. перейти в раздел About</t>
+  </si>
+  <si>
+    <t>Отображаются новости, подходящие под настройку фильтрации</t>
+  </si>
+  <si>
+    <t>1. Нажать на иконку сортировки</t>
+  </si>
+  <si>
+    <t>Новости отсортировались по дате</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание по тапу</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования</t>
+  </si>
+  <si>
+    <t>Открылась панель управления новостями</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на новость</t>
+  </si>
+  <si>
+    <t>Новость раскрылась</t>
+  </si>
+  <si>
+    <t>Открытие по тапу в контрольной панели</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на иконку удаления новости</t>
+  </si>
+  <si>
+    <t>Новость удалена и более не отображается</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на иконку создания новости
+3. Внести данные
+4. Нажать сохранить</t>
+  </si>
+  <si>
+    <t>Новость добавлена, отображается в ленте</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на иконку редактирования новости
+3. Внести изменения
+4. Нажать сохранить</t>
+  </si>
+  <si>
+    <t>Изменение статуса новости и ее сокрытие из ленты</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на иконку редактирования новости со статусом Not active
+3. Внести изменения отображения
+4. Нажать сохранить</t>
+  </si>
+  <si>
+    <t>Статус отображения новости изменен. В зависимости от прежнего статуса, новость отобразилась в ленте</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку редактирования
+2. Нажать на иконку редактирования новости со статусом Active
+3. Внести изменения отображения
+4. Нажать сохранить</t>
+  </si>
+  <si>
+    <t>Статус отображения новости изменен. В зависимости от прежнего статуса, новость скрылась из ленты</t>
+  </si>
+  <si>
+    <t>Внесены изменения в новость</t>
+  </si>
+  <si>
+    <t>Раздел цитат</t>
+  </si>
+  <si>
+    <t>Запуск приложения, вход с использованием валидных данных, перейти в раздел цитат</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание цитат</t>
+  </si>
+  <si>
+    <t>1. Нажать на цитату
+2. Нажать на цитату повторно</t>
+  </si>
+  <si>
+    <t>Цитата развернулась/свернулась</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +559,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +567,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +905,1165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="22.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="47" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B42:B51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0A029-F0E8-4A50-8A35-870DF10AC692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71765B84-F518-48A8-B348-479F141F2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="1200" windowWidth="23580" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Возврат в окно заявок</t>
   </si>
   <si>
-    <t>Кнопка пользователя</t>
-  </si>
-  <si>
     <t>Выход из профиля</t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>Цитата развернулась/свернулась</t>
+  </si>
+  <si>
+    <t>Меню пользователя</t>
   </si>
 </sst>
 </file>
@@ -607,9 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,6 +620,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -908,47 +908,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="22.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="47" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="22.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="47" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -959,1110 +959,1110 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B42:B51"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B41"/>
-    <mergeCell ref="B42:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71765B84-F518-48A8-B348-479F141F2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F5AD1-16A1-44E3-A005-E5F4E2C1E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="1200" windowWidth="23580" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="152">
   <si>
     <t>Экран загрузки</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>Меню пользователя</t>
+  </si>
+  <si>
+    <t>Покрытие автотестами</t>
+  </si>
+  <si>
+    <t>Не покрыт. Нет фильтрации заявок из главного окна. Работает из окна заявок</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -624,6 +630,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +936,11 @@
     <col min="5" max="5" width="41.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="47" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -946,8 +962,11 @@
       <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -967,12 +986,15 @@
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -990,12 +1012,15 @@
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1011,12 +1036,15 @@
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1032,12 +1060,15 @@
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1055,12 +1086,15 @@
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
@@ -1076,12 +1110,15 @@
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1097,12 +1134,15 @@
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1118,12 +1158,15 @@
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1139,12 +1182,15 @@
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1160,12 +1206,15 @@
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1181,12 +1230,15 @@
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1202,12 +1254,15 @@
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1225,12 +1280,15 @@
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,12 +1304,15 @@
       <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,12 +1328,15 @@
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,12 +1352,15 @@
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,12 +1376,15 @@
       <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1330,12 +1400,13 @@
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1351,12 +1422,13 @@
       <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1372,12 +1444,15 @@
       <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H21" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,12 +1468,13 @@
       <c r="G22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1414,12 +1490,13 @@
       <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1435,12 +1512,13 @@
       <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,12 +1534,15 @@
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1477,12 +1558,15 @@
       <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1498,12 +1582,15 @@
       <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1521,12 +1608,15 @@
       <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1542,12 +1632,15 @@
       <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1563,12 +1656,15 @@
       <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,12 +1680,15 @@
       <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1607,12 +1706,15 @@
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1628,12 +1730,15 @@
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
@@ -1649,12 +1754,15 @@
       <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H34" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1670,12 +1778,15 @@
       <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
         <v>132</v>
       </c>
@@ -1691,12 +1802,15 @@
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1712,12 +1826,15 @@
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H37" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1733,12 +1850,15 @@
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1754,12 +1874,15 @@
       <c r="G39" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H39" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1" t="s">
         <v>138</v>
       </c>
@@ -1775,12 +1898,15 @@
       <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H40" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1796,12 +1922,15 @@
       <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H41" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1819,12 +1948,15 @@
       <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H42" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1840,12 +1972,15 @@
       <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H43" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1862,11 +1997,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
@@ -1883,11 +2018,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
@@ -1904,11 +2039,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,11 +2060,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1946,11 +2081,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1966,12 +2101,15 @@
       <c r="G49" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1987,12 +2125,15 @@
       <c r="G50" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H50" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,8 +2149,11 @@
       <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H51" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2031,8 +2175,11 @@
       <c r="G52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H52" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2054,9 +2201,13 @@
       <c r="G53" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H53" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H21:H24"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B13"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F5AD1-16A1-44E3-A005-E5F4E2C1E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39012F84-29BA-4476-98FD-C62720E37038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
   <si>
     <t>Экран загрузки</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Не покрыт. Нет фильтрации заявок из главного окна. Работает из окна заявок</t>
+  </si>
+  <si>
+    <t>Не покрыт, не удается подобрать локатор кнопки конкретного комментария</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +943,7 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1020,7 +1023,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1047,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1068,7 +1071,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1094,7 +1097,7 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1166,7 +1169,7 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1193,7 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1217,7 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1288,7 +1291,7 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1363,7 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1387,7 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,13 +1403,15 @@
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,13 +1427,15 @@
       <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1459,7 @@
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1481,7 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1503,7 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1525,7 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1549,7 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1566,7 +1573,7 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1597,7 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1616,7 +1623,7 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1647,7 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1671,7 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1688,7 +1695,7 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1714,7 +1721,7 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1745,7 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
@@ -1762,7 +1769,7 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1793,7 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>132</v>
       </c>
@@ -1810,7 +1817,7 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1841,7 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1865,7 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,7 +1889,7 @@
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>138</v>
       </c>
@@ -1906,7 +1913,7 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1930,7 +1937,7 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1956,7 +1963,7 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1980,7 +1987,7 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1995,13 +2002,16 @@
       </c>
       <c r="G44" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2015,6 +2025,9 @@
         <v>97</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2022,7 +2035,7 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
@@ -2036,6 +2049,9 @@
         <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2043,7 +2059,7 @@
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2057,6 +2073,9 @@
         <v>102</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2064,7 +2083,7 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2078,6 +2097,9 @@
         <v>104</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2085,7 +2107,7 @@
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
@@ -2109,7 +2131,7 @@
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +2155,7 @@
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39012F84-29BA-4476-98FD-C62720E37038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202ABC3-9DAB-4720-ABDF-ACCFC0A1FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1755" yWindow="930" windowWidth="26850" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="183">
   <si>
     <t>Экран загрузки</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Переход в раздел цитат</t>
-  </si>
-  <si>
-    <t>Открытие меню пользователя</t>
   </si>
   <si>
     <t>Основное окно</t>
@@ -536,6 +533,108 @@
   </si>
   <si>
     <t>Не покрыт, не удается подобрать локатор кнопки конкретного комментария</t>
+  </si>
+  <si>
+    <t>Название теста</t>
+  </si>
+  <si>
+    <t>wrongAuth</t>
+  </si>
+  <si>
+    <t>signInOK</t>
+  </si>
+  <si>
+    <t>blankAuth
+emptyAuth</t>
+  </si>
+  <si>
+    <t>loadingElementsTest</t>
+  </si>
+  <si>
+    <t>aboutMenuCheck</t>
+  </si>
+  <si>
+    <t>claimsMenuCheck</t>
+  </si>
+  <si>
+    <t>newsMenuCheck</t>
+  </si>
+  <si>
+    <t>mainMenuCheck</t>
+  </si>
+  <si>
+    <t>aboutMenuCheck
+claimsMenuCheck
+newsMenuCheck
+mainMenuCheck</t>
+  </si>
+  <si>
+    <t>logoClickCheck</t>
+  </si>
+  <si>
+    <t>quotesMenuCheck</t>
+  </si>
+  <si>
+    <t>Выход из системы</t>
+  </si>
+  <si>
+    <t>logOut</t>
+  </si>
+  <si>
+    <t>expandNews</t>
+  </si>
+  <si>
+    <t>expandClaims</t>
+  </si>
+  <si>
+    <t>allNews</t>
+  </si>
+  <si>
+    <t>allClaims</t>
+  </si>
+  <si>
+    <t>expandSingleNews</t>
+  </si>
+  <si>
+    <t>openClaim</t>
+  </si>
+  <si>
+    <t>addClaim</t>
+  </si>
+  <si>
+    <t>newsOpen</t>
+  </si>
+  <si>
+    <t>newsOpenInPanel</t>
+  </si>
+  <si>
+    <t>newsDelete</t>
+  </si>
+  <si>
+    <t>newsEdit</t>
+  </si>
+  <si>
+    <t>newsStatus</t>
+  </si>
+  <si>
+    <t>filterNews
+filterEditNews</t>
+  </si>
+  <si>
+    <t>sortNews
+sortEditNews</t>
+  </si>
+  <si>
+    <t>filterClaimOpen
+filterClaimInProgress
+filterClaimExecuted
+filterClaimCanceled</t>
+  </si>
+  <si>
+    <t>claimCreate</t>
+  </si>
+  <si>
+    <t>claimCancel</t>
   </si>
 </sst>
 </file>
@@ -605,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -638,10 +737,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,36 +1045,40 @@
     <col min="6" max="6" width="47" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="20" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -981,1250 +1090,1394 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>35</v>
+      <c r="B42" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2238,5 +2491,6 @@
     <mergeCell ref="B32:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>